--- a/Egg_swapping.xlsx
+++ b/Egg_swapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C4396A-E03A-A14C-8F1D-5F23C62E3A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A2FB41-2858-B645-8D4D-13ECAC662E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13420" xr2:uid="{7B80D4EA-8CFA-0347-A4EF-9897466A8C53}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$228</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
